--- a/phyfaOS_Porting_load.xlsx
+++ b/phyfaOS_Porting_load.xlsx
@@ -673,9 +673,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -686,6 +683,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,8 +977,8 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1011,16 +1011,16 @@
       <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>66</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1043,16 +1043,16 @@
       <c r="E2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>15</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>3</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>8</v>
       </c>
     </row>
@@ -1072,16 +1072,16 @@
       <c r="E3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>5</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>9</v>
       </c>
     </row>
@@ -1101,16 +1101,16 @@
       <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>6</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>8</v>
       </c>
     </row>
@@ -1130,21 +1130,21 @@
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>5</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>3</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1159,21 +1159,21 @@
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>5</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>85</v>
       </c>
@@ -1186,21 +1186,21 @@
       <c r="E7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>20</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>10</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>84</v>
       </c>
@@ -1213,16 +1213,16 @@
       <c r="E8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>13</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>8</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>8</v>
       </c>
     </row>
@@ -1242,16 +1242,16 @@
       <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>5</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>5</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>9</v>
       </c>
     </row>
@@ -1271,16 +1271,16 @@
       <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1300,16 +1300,16 @@
       <c r="E11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>10</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>5</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>7</v>
       </c>
     </row>
@@ -1327,16 +1327,16 @@
       <c r="E12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1356,16 +1356,16 @@
       <c r="E13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>10</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>10</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>10</v>
       </c>
     </row>
@@ -1385,16 +1385,16 @@
       <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>13</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>8</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>9</v>
       </c>
     </row>
@@ -1414,19 +1414,19 @@
       <c r="E15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>15</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>0</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>6</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1444,16 +1444,16 @@
       <c r="E16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1473,16 +1473,16 @@
       <c r="E17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>5</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>0</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>10</v>
       </c>
     </row>
@@ -1502,20 +1502,20 @@
       <c r="E18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>5</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>3</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1531,16 +1531,16 @@
       <c r="E19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
+        <v>12</v>
+      </c>
+      <c r="H19" s="8">
         <v>5</v>
       </c>
-      <c r="H19" s="9">
-        <v>5</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>6</v>
       </c>
     </row>
@@ -1560,16 +1560,16 @@
       <c r="E20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>3</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>2</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>8</v>
       </c>
     </row>
@@ -1589,16 +1589,16 @@
       <c r="E21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1606,18 +1606,18 @@
       <c r="F22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <f>SUM(G2:G21)</f>
-        <v>140</v>
-      </c>
-      <c r="H22" s="9">
+        <v>147</v>
+      </c>
+      <c r="H22" s="8">
         <f>SUM(H2:H21)</f>
         <v>63</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1698,5 +1698,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>